--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3058.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3058.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2317022792463331</v>
+        <v>1.686896920204163</v>
       </c>
       <c r="B1">
-        <v>0.2545941737268923</v>
+        <v>3.321837186813354</v>
       </c>
       <c r="C1">
-        <v>0.2998424869214114</v>
+        <v>6.138805866241455</v>
       </c>
       <c r="D1">
-        <v>0.5166498092472008</v>
+        <v>1.809961438179016</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>0.8947840332984924</v>
       </c>
     </row>
   </sheetData>
